--- a/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6659BD3-AE40-4C46-A032-5163FF707DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D098C180-811D-41A7-AC84-DB02C999204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E3B8D8F-7BA5-407F-82A8-E56158E28854}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A762C6BE-69B3-4E24-8BD2-51A5F45394F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>27,79%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,21%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>34,59%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>36,62%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>65,41%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>61,34%</t>
   </si>
   <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
   </si>
   <si>
     <t>63,38%</t>
   </si>
   <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -197,7 +197,7 @@
     <t>29,7%</t>
   </si>
   <si>
-    <t>26,58%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>32,82%</t>
@@ -206,19 +206,19 @@
     <t>36,3%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
   </si>
   <si>
     <t>70,3%</t>
@@ -227,25 +227,25 @@
     <t>67,18%</t>
   </si>
   <si>
-    <t>73,42%</t>
+    <t>73,12%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
   </si>
   <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -254,1096 +254,1114 @@
     <t>28,08%</t>
   </si>
   <si>
-    <t>24,77%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>30,34%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>69,66%</t>
   </si>
   <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
   </si>
   <si>
     <t>34,87%</t>
   </si>
   <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
   </si>
   <si>
     <t>65,13%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>34,91%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>65,09%</t>
   </si>
   <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>62,59%</t>
   </si>
   <si>
-    <t>Hogares con algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>68,16%</t>
   </si>
   <si>
     <t>66,24%</t>
   </si>
   <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>18,78%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
   </si>
   <si>
     <t>77,77%</t>
   </si>
   <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>81,22%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51CEB30-AC24-4034-9661-38A19A2704E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B81379-192E-4870-8818-37953551D337}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2651,7 +2669,7 @@
         <v>939</v>
       </c>
       <c r="D19" s="7">
-        <v>967378</v>
+        <v>967379</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2732,7 +2750,7 @@
         <v>4443</v>
       </c>
       <c r="N20" s="7">
-        <v>4525672</v>
+        <v>4525671</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2753,7 +2771,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2783,7 +2801,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE094093-41C4-4C5B-99BB-3277834E14D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E972F20-EDC0-4F22-B7A4-45990164AE01}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2945,10 +2963,10 @@
         <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -2957,13 +2975,13 @@
         <v>53510</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -2972,13 +2990,13 @@
         <v>97870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3011,13 @@
         <v>69135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>51</v>
@@ -3008,13 +3026,13 @@
         <v>58395</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -3023,13 +3041,13 @@
         <v>127530</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3115,13 @@
         <v>228209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -3112,7 +3130,7 @@
         <v>210798</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>147</v>
@@ -3154,7 +3172,7 @@
         <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="H8" s="7">
         <v>351</v>
@@ -3163,13 +3181,13 @@
         <v>372628</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>687</v>
@@ -3178,13 +3196,13 @@
         <v>732123</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3270,13 @@
         <v>321278</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H10" s="7">
         <v>302</v>
@@ -3267,13 +3285,13 @@
         <v>330924</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M10" s="7">
         <v>595</v>
@@ -3282,13 +3300,13 @@
         <v>652202</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,7 +3321,7 @@
         <v>693525</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>169</v>
@@ -3881,7 +3899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF209B3A-8521-4DD0-BFAB-6B899E3FBF32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5451D096-2DD8-491D-94A6-597A86E630B0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4163,10 +4181,10 @@
         <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>211</v>
@@ -4175,13 +4193,13 @@
         <v>218268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>396</v>
@@ -4190,13 +4208,13 @@
         <v>417486</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4229,13 @@
         <v>359036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>340</v>
@@ -4226,13 +4244,13 @@
         <v>341211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>694</v>
@@ -4241,13 +4259,13 @@
         <v>700247</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4333,13 @@
         <v>312121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>296</v>
@@ -4330,13 +4348,13 @@
         <v>314462</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>589</v>
@@ -4345,13 +4363,13 @@
         <v>626583</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4384,13 @@
         <v>710310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>681</v>
@@ -4381,13 +4399,13 @@
         <v>728451</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>1339</v>
@@ -4396,13 +4414,13 @@
         <v>1438761</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4488,13 @@
         <v>297460</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>290</v>
@@ -4485,13 +4503,13 @@
         <v>309216</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>566</v>
@@ -4500,13 +4518,13 @@
         <v>606677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4539,13 @@
         <v>462092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>445</v>
@@ -4536,13 +4554,13 @@
         <v>474524</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>865</v>
@@ -4551,13 +4569,13 @@
         <v>936615</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4643,13 @@
         <v>354871</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>178</v>
+        <v>302</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H16" s="7">
         <v>373</v>
@@ -4640,13 +4658,13 @@
         <v>412624</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>717</v>
@@ -4655,13 +4673,13 @@
         <v>767495</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4694,13 @@
         <v>581429</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>585</v>
@@ -4691,13 +4709,13 @@
         <v>630120</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>1172</v>
@@ -4706,13 +4724,13 @@
         <v>1211549</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4780,13 +4798,13 @@
         <v>1220811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>1213</v>
@@ -4795,13 +4813,13 @@
         <v>1296867</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>2368</v>
@@ -4813,10 +4831,10 @@
         <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>59</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,13 +4849,13 @@
         <v>2172272</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>2123</v>
@@ -4846,13 +4864,13 @@
         <v>2245369</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M20" s="7">
         <v>4198</v>
@@ -4864,10 +4882,10 @@
         <v>63</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,7 +4962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A432FB-493B-4D26-B61C-F4EBA39FAB13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20690562-66FA-4515-97DE-42E75DD4679C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4961,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5068,13 +5086,13 @@
         <v>7929</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -5083,13 +5101,13 @@
         <v>3754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -5098,13 +5116,13 @@
         <v>11682</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5137,13 @@
         <v>94053</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>240</v>
@@ -5134,13 +5152,13 @@
         <v>126979</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5149,13 +5167,13 @@
         <v>221033</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5241,13 @@
         <v>39937</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -5238,13 +5256,13 @@
         <v>42503</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>115</v>
@@ -5253,13 +5271,13 @@
         <v>82440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5292,13 @@
         <v>509886</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>924</v>
@@ -5289,13 +5307,13 @@
         <v>577464</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>1495</v>
@@ -5304,13 +5322,13 @@
         <v>1087350</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,13 +5396,13 @@
         <v>115905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
@@ -5393,13 +5411,13 @@
         <v>150430</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>309</v>
@@ -5408,13 +5426,13 @@
         <v>266335</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5447,13 @@
         <v>923343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>1323</v>
@@ -5444,13 +5462,13 @@
         <v>908987</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>2171</v>
@@ -5459,13 +5477,13 @@
         <v>1832330</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5551,13 @@
         <v>134359</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>193</v>
@@ -5548,13 +5566,13 @@
         <v>259882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>318</v>
@@ -5563,13 +5581,13 @@
         <v>394240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5602,13 @@
         <v>594253</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>854</v>
@@ -5599,13 +5617,13 @@
         <v>614489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>1404</v>
@@ -5614,13 +5632,13 @@
         <v>1208743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5706,13 @@
         <v>318041</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>539</v>
@@ -5703,13 +5721,13 @@
         <v>395879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>858</v>
@@ -5718,13 +5736,13 @@
         <v>713920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,16 +5754,16 @@
         <v>686</v>
       </c>
       <c r="D17" s="7">
-        <v>647202</v>
+        <v>647203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
         <v>1022</v>
@@ -5754,13 +5772,13 @@
         <v>753774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M17" s="7">
         <v>1708</v>
@@ -5769,13 +5787,13 @@
         <v>1400976</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,7 +5805,7 @@
         <v>1005</v>
       </c>
       <c r="D18" s="7">
-        <v>965243</v>
+        <v>965244</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5843,13 +5861,13 @@
         <v>616170</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H19" s="7">
         <v>1002</v>
@@ -5858,13 +5876,13 @@
         <v>852448</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>1613</v>
@@ -5873,13 +5891,13 @@
         <v>1468618</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5912,13 @@
         <v>2768738</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>4363</v>
@@ -5909,13 +5927,13 @@
         <v>2981692</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>7126</v>
@@ -5924,13 +5942,13 @@
         <v>5750430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D098C180-811D-41A7-AC84-DB02C999204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB78C6FD-B120-4F98-9D6B-5715D96A5034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A762C6BE-69B3-4E24-8BD2-51A5F45394F9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{188B6E57-E66E-4413-8689-C9ACC1216257}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,129 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -248,7 +191,7 @@
     <t>69,14%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>28,08%</t>
@@ -422,100 +365,58 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2012 (Tasa respuesta: 99,85%)</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
   </si>
   <si>
     <t>31,66%</t>
@@ -737,112 +638,58 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2016 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>30,53%</t>
@@ -1046,322 +893,262 @@
     <t>Población que tiene algún problema medioambiental en la zona de residencia en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B81379-192E-4870-8818-37953551D337}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4329C5-A0BA-4A42-9741-DFD7B5284849}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1891,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7">
-        <v>32061</v>
+        <v>232226</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1906,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="I4" s="7">
-        <v>35434</v>
+        <v>257950</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1921,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>68</v>
+        <v>488</v>
       </c>
       <c r="N4" s="7">
-        <v>67494</v>
+        <v>490177</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1942,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>76</v>
+        <v>454</v>
       </c>
       <c r="D5" s="7">
-        <v>83297</v>
+        <v>461786</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1957,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>89</v>
+        <v>437</v>
       </c>
       <c r="I5" s="7">
-        <v>77321</v>
+        <v>430401</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1972,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>165</v>
+        <v>891</v>
       </c>
       <c r="N5" s="7">
-        <v>160619</v>
+        <v>892186</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1993,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2023,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="D7" s="7">
-        <v>200166</v>
+        <v>285631</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2061,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="I7" s="7">
-        <v>222517</v>
+        <v>351569</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2076,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>420</v>
+        <v>587</v>
       </c>
       <c r="N7" s="7">
-        <v>422682</v>
+        <v>637200</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2097,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>378</v>
+        <v>636</v>
       </c>
       <c r="D8" s="7">
-        <v>378488</v>
+        <v>676169</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2112,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>348</v>
+        <v>581</v>
       </c>
       <c r="I8" s="7">
-        <v>353079</v>
+        <v>616824</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2127,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>726</v>
+        <v>1217</v>
       </c>
       <c r="N8" s="7">
-        <v>731568</v>
+        <v>1292993</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2148,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2163,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2178,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2201,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>285631</v>
+        <v>190551</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2216,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>327</v>
+        <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>351569</v>
+        <v>188988</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2231,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>587</v>
+        <v>373</v>
       </c>
       <c r="N10" s="7">
-        <v>637200</v>
+        <v>379539</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2252,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>636</v>
+        <v>463</v>
       </c>
       <c r="D11" s="7">
-        <v>676169</v>
+        <v>487958</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2267,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>581</v>
+        <v>501</v>
       </c>
       <c r="I11" s="7">
-        <v>616824</v>
+        <v>494853</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2282,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1217</v>
+        <v>964</v>
       </c>
       <c r="N11" s="7">
-        <v>1292993</v>
+        <v>982811</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2303,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2356,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="D13" s="7">
-        <v>190551</v>
+        <v>258970</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2371,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>195</v>
+        <v>348</v>
       </c>
       <c r="I13" s="7">
-        <v>188988</v>
+        <v>364183</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2386,10 +2173,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>373</v>
+        <v>620</v>
       </c>
       <c r="N13" s="7">
-        <v>379539</v>
+        <v>623153</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2407,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>463</v>
+        <v>722</v>
       </c>
       <c r="D14" s="7">
-        <v>487958</v>
+        <v>683252</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2422,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>501</v>
+        <v>649</v>
       </c>
       <c r="I14" s="7">
-        <v>494853</v>
+        <v>674429</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2437,10 +2224,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>964</v>
+        <v>1371</v>
       </c>
       <c r="N14" s="7">
-        <v>982811</v>
+        <v>1357681</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2458,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2473,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2488,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2505,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>272</v>
+        <v>939</v>
       </c>
       <c r="D16" s="7">
-        <v>258970</v>
+        <v>967378</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>1129</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1162691</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>348</v>
-      </c>
-      <c r="I16" s="7">
-        <v>364183</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>2068</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2130069</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>620</v>
-      </c>
-      <c r="N16" s="7">
-        <v>623153</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2562,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>722</v>
+        <v>2275</v>
       </c>
       <c r="D17" s="7">
-        <v>683252</v>
+        <v>2309165</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2168</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2216506</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>649</v>
-      </c>
-      <c r="I17" s="7">
-        <v>674429</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>4443</v>
+      </c>
+      <c r="N17" s="7">
+        <v>4525672</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>1371</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1357681</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2613,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2628,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2643,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2659,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>939</v>
-      </c>
-      <c r="D19" s="7">
-        <v>967379</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1129</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1162691</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2068</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2130069</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2275</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2309165</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2168</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2216507</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4443</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4525671</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2836,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E972F20-EDC0-4F22-B7A4-45990164AE01}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F153DD3-9AE0-4A56-964A-B976AD1160F6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2853,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="D4" s="7">
-        <v>44360</v>
+        <v>272569</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="I4" s="7">
-        <v>53510</v>
+        <v>264308</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>96</v>
+        <v>511</v>
       </c>
       <c r="N4" s="7">
-        <v>97870</v>
+        <v>536877</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>72</v>
+        <v>408</v>
       </c>
       <c r="D5" s="7">
-        <v>69135</v>
+        <v>428630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>51</v>
+        <v>402</v>
       </c>
       <c r="I5" s="7">
-        <v>58395</v>
+        <v>431023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
+        <v>810</v>
+      </c>
+      <c r="N5" s="7">
+        <v>859653</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="7">
-        <v>127530</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>120</v>
+        <v>672</v>
       </c>
       <c r="D6" s="7">
-        <v>113495</v>
+        <v>701199</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3071,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>649</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>695331</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3086,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>219</v>
+        <v>1321</v>
       </c>
       <c r="N6" s="7">
-        <v>225400</v>
+        <v>1396530</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3109,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="D7" s="7">
-        <v>228209</v>
+        <v>321278</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>302</v>
       </c>
       <c r="I7" s="7">
-        <v>210798</v>
+        <v>330924</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>415</v>
+        <v>595</v>
       </c>
       <c r="N7" s="7">
-        <v>439007</v>
+        <v>652202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>336</v>
+        <v>640</v>
       </c>
       <c r="D8" s="7">
-        <v>359495</v>
+        <v>693525</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>351</v>
+        <v>636</v>
       </c>
       <c r="I8" s="7">
-        <v>372628</v>
+        <v>699145</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>687</v>
+        <v>1276</v>
       </c>
       <c r="N8" s="7">
-        <v>732123</v>
+        <v>1392670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>933</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1014803</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3226,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>550</v>
+        <v>938</v>
       </c>
       <c r="I9" s="7">
-        <v>583426</v>
+        <v>1030069</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3241,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1102</v>
+        <v>1871</v>
       </c>
       <c r="N9" s="7">
-        <v>1171130</v>
+        <v>2044872</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3264,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D10" s="7">
-        <v>321278</v>
+        <v>291843</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="I10" s="7">
-        <v>330924</v>
+        <v>311764</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>595</v>
+        <v>541</v>
       </c>
       <c r="N10" s="7">
-        <v>652202</v>
+        <v>603608</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>640</v>
+        <v>427</v>
       </c>
       <c r="D11" s="7">
-        <v>693525</v>
+        <v>465780</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>636</v>
+        <v>425</v>
       </c>
       <c r="I11" s="7">
-        <v>699145</v>
+        <v>464349</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1276</v>
+        <v>852</v>
       </c>
       <c r="N11" s="7">
-        <v>1392670</v>
+        <v>930129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>933</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1014803</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>938</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1030069</v>
+        <v>776113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3396,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1871</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2044872</v>
+        <v>1533737</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3419,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>262</v>
+        <v>461</v>
       </c>
       <c r="D13" s="7">
-        <v>291843</v>
+        <v>472945</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>279</v>
+        <v>485</v>
       </c>
       <c r="I13" s="7">
-        <v>311764</v>
+        <v>508597</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>541</v>
+        <v>946</v>
       </c>
       <c r="N13" s="7">
-        <v>603608</v>
+        <v>981542</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="D14" s="7">
-        <v>465780</v>
+        <v>474794</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="I14" s="7">
-        <v>464349</v>
+        <v>542348</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>852</v>
+        <v>966</v>
       </c>
       <c r="N14" s="7">
-        <v>930129</v>
+        <v>1017142</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3536,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>776113</v>
+        <v>1050945</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3551,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1912</v>
       </c>
       <c r="N15" s="7">
-        <v>1533737</v>
+        <v>1998684</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3568,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>461</v>
+        <v>1280</v>
       </c>
       <c r="D16" s="7">
-        <v>472945</v>
+        <v>1358635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
-        <v>485</v>
+        <v>1313</v>
       </c>
       <c r="I16" s="7">
-        <v>508597</v>
+        <v>1415593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>946</v>
+        <v>2593</v>
       </c>
       <c r="N16" s="7">
-        <v>981542</v>
+        <v>2774228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>449</v>
+        <v>1924</v>
       </c>
       <c r="D17" s="7">
-        <v>474794</v>
+        <v>2062730</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>517</v>
+        <v>1980</v>
       </c>
       <c r="I17" s="7">
-        <v>542348</v>
+        <v>2136865</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>966</v>
+        <v>3904</v>
       </c>
       <c r="N17" s="7">
-        <v>1017142</v>
+        <v>4199595</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3204</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3421365</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3691,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3293</v>
       </c>
       <c r="I18" s="7">
-        <v>1050945</v>
+        <v>3552458</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3706,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1912</v>
+        <v>6497</v>
       </c>
       <c r="N18" s="7">
-        <v>1998684</v>
+        <v>6973823</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3722,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1280</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1358635</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1313</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1415593</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2593</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2774228</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1924</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2062730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1980</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2136865</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3904</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4199595</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3204</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421365</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3293</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3552458</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6497</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6973823</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3899,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5451D096-2DD8-491D-94A6-597A86E630B0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CCE283-FC3D-402E-9491-9D7B0E500760}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3916,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c r="D4" s="7">
-        <v>57140</v>
+        <v>256358</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="I4" s="7">
-        <v>42297</v>
+        <v>260565</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>100</v>
+        <v>496</v>
       </c>
       <c r="N4" s="7">
-        <v>99437</v>
+        <v>516923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="D5" s="7">
-        <v>59406</v>
+        <v>418442</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>412</v>
       </c>
       <c r="I5" s="7">
-        <v>71063</v>
+        <v>412274</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>128</v>
+        <v>822</v>
       </c>
       <c r="N5" s="7">
-        <v>130469</v>
+        <v>830716</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4134,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4149,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4172,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>185</v>
+        <v>293</v>
       </c>
       <c r="D7" s="7">
-        <v>199218</v>
+        <v>312121</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="I7" s="7">
-        <v>218268</v>
+        <v>314462</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
-        <v>396</v>
+        <v>589</v>
       </c>
       <c r="N7" s="7">
-        <v>417486</v>
+        <v>626583</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>354</v>
+        <v>658</v>
       </c>
       <c r="D8" s="7">
-        <v>359036</v>
+        <v>710310</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="H8" s="7">
-        <v>340</v>
+        <v>681</v>
       </c>
       <c r="I8" s="7">
-        <v>341211</v>
+        <v>728451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>694</v>
+        <v>1339</v>
       </c>
       <c r="N8" s="7">
-        <v>700247</v>
+        <v>1438761</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4289,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4304,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4327,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D10" s="7">
-        <v>312121</v>
+        <v>297460</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I10" s="7">
-        <v>314462</v>
+        <v>309216</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="N10" s="7">
-        <v>626583</v>
+        <v>606677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>658</v>
+        <v>420</v>
       </c>
       <c r="D11" s="7">
-        <v>710310</v>
+        <v>462092</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>681</v>
+        <v>445</v>
       </c>
       <c r="I11" s="7">
-        <v>728451</v>
+        <v>474524</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>1339</v>
+        <v>865</v>
       </c>
       <c r="N11" s="7">
-        <v>1438761</v>
+        <v>936615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4444,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>735</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>783740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4459,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1431</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1543292</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4482,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="D13" s="7">
-        <v>297460</v>
+        <v>354871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="I13" s="7">
-        <v>309216</v>
+        <v>412624</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>566</v>
+        <v>717</v>
       </c>
       <c r="N13" s="7">
-        <v>606677</v>
+        <v>767495</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>420</v>
+        <v>587</v>
       </c>
       <c r="D14" s="7">
-        <v>462092</v>
+        <v>581429</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>445</v>
+        <v>585</v>
       </c>
       <c r="I14" s="7">
-        <v>474524</v>
+        <v>630120</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>865</v>
+        <v>1172</v>
       </c>
       <c r="N14" s="7">
-        <v>936615</v>
+        <v>1211549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>931</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>936300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4599,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>735</v>
+        <v>958</v>
       </c>
       <c r="I15" s="7">
-        <v>783740</v>
+        <v>1042744</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4614,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1431</v>
+        <v>1889</v>
       </c>
       <c r="N15" s="7">
-        <v>1543292</v>
+        <v>1979044</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4631,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>344</v>
+        <v>1155</v>
       </c>
       <c r="D16" s="7">
-        <v>354871</v>
+        <v>1220811</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>373</v>
+        <v>1213</v>
       </c>
       <c r="I16" s="7">
-        <v>412624</v>
+        <v>1296867</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>717</v>
+        <v>2368</v>
       </c>
       <c r="N16" s="7">
-        <v>767495</v>
+        <v>2517677</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>307</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>587</v>
+        <v>2075</v>
       </c>
       <c r="D17" s="7">
-        <v>581429</v>
+        <v>2172272</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="H17" s="7">
-        <v>585</v>
+        <v>2123</v>
       </c>
       <c r="I17" s="7">
-        <v>630120</v>
+        <v>2245369</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
-        <v>1172</v>
+        <v>4198</v>
       </c>
       <c r="N17" s="7">
-        <v>1211549</v>
+        <v>4417642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4739,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>931</v>
+        <v>3230</v>
       </c>
       <c r="D18" s="7">
-        <v>936300</v>
+        <v>3393083</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4754,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>958</v>
+        <v>3336</v>
       </c>
       <c r="I18" s="7">
-        <v>1042744</v>
+        <v>3542236</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4769,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1889</v>
+        <v>6566</v>
       </c>
       <c r="N18" s="7">
-        <v>1979044</v>
+        <v>6935319</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4785,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1155</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1220811</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1213</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1296867</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2368</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2517677</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2075</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2172272</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2123</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2245369</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4198</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4417642</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3230</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3393083</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3336</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3542236</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6566</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6935319</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4962,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20690562-66FA-4515-97DE-42E75DD4679C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA94DEBA-B56E-4213-A1E2-78D10F16EE02}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4979,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7">
-        <v>7929</v>
+        <v>46075</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="I4" s="7">
-        <v>3754</v>
+        <v>43574</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="N4" s="7">
-        <v>11682</v>
+        <v>89648</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>108</v>
+        <v>679</v>
       </c>
       <c r="D5" s="7">
-        <v>94053</v>
+        <v>589366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
-        <v>240</v>
+        <v>1164</v>
       </c>
       <c r="I5" s="7">
-        <v>126979</v>
+        <v>681756</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
-        <v>348</v>
+        <v>1843</v>
       </c>
       <c r="N5" s="7">
-        <v>221033</v>
+        <v>1271124</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5197,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5212,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5235,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>39937</v>
+        <v>116441</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>42503</v>
+        <v>136587</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="N7" s="7">
-        <v>82440</v>
+        <v>253028</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>571</v>
+        <v>848</v>
       </c>
       <c r="D8" s="7">
-        <v>509886</v>
+        <v>1076423</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>924</v>
+        <v>1323</v>
       </c>
       <c r="I8" s="7">
-        <v>577464</v>
+        <v>821452</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>1495</v>
+        <v>2171</v>
       </c>
       <c r="N8" s="7">
-        <v>1087350</v>
+        <v>1897875</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5352,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958039</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5367,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2150903</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5390,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D10" s="7">
-        <v>115905</v>
+        <v>129838</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>193</v>
       </c>
       <c r="I10" s="7">
-        <v>150430</v>
+        <v>340663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="N10" s="7">
-        <v>266335</v>
+        <v>470501</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>848</v>
+        <v>550</v>
       </c>
       <c r="D11" s="7">
-        <v>923343</v>
+        <v>574678</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
-        <v>1323</v>
+        <v>854</v>
       </c>
       <c r="I11" s="7">
-        <v>908987</v>
+        <v>592703</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
-        <v>2171</v>
+        <v>1404</v>
       </c>
       <c r="N11" s="7">
-        <v>1832330</v>
+        <v>1167380</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5507,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059417</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5522,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2098665</v>
+        <v>1637881</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5545,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="D13" s="7">
-        <v>134359</v>
+        <v>302245</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
-        <v>193</v>
+        <v>539</v>
       </c>
       <c r="I13" s="7">
-        <v>259882</v>
+        <v>354262</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
-        <v>318</v>
+        <v>858</v>
       </c>
       <c r="N13" s="7">
-        <v>394240</v>
+        <v>656508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>550</v>
+        <v>686</v>
       </c>
       <c r="D14" s="7">
-        <v>594253</v>
+        <v>624422</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>854</v>
+        <v>1022</v>
       </c>
       <c r="I14" s="7">
-        <v>614489</v>
+        <v>739940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>1404</v>
+        <v>1708</v>
       </c>
       <c r="N14" s="7">
-        <v>1208743</v>
+        <v>1364362</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>728612</v>
+        <v>926667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5662,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094202</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5677,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1602983</v>
+        <v>2020870</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5694,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>319</v>
+        <v>611</v>
       </c>
       <c r="D16" s="7">
-        <v>318041</v>
+        <v>594599</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>353</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="H16" s="7">
-        <v>539</v>
+        <v>1002</v>
       </c>
       <c r="I16" s="7">
-        <v>395879</v>
+        <v>875086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="M16" s="7">
-        <v>858</v>
+        <v>1613</v>
       </c>
       <c r="N16" s="7">
-        <v>713920</v>
+        <v>1469685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>686</v>
+        <v>2763</v>
       </c>
       <c r="D17" s="7">
-        <v>647203</v>
+        <v>2864890</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
-        <v>1022</v>
+        <v>4363</v>
       </c>
       <c r="I17" s="7">
-        <v>753774</v>
+        <v>2835852</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>1708</v>
+        <v>7126</v>
       </c>
       <c r="N17" s="7">
-        <v>1400976</v>
+        <v>5700741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>965244</v>
+        <v>3459489</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5817,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5365</v>
       </c>
       <c r="I18" s="7">
-        <v>1149653</v>
+        <v>3710938</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5832,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8739</v>
       </c>
       <c r="N18" s="7">
-        <v>2114896</v>
+        <v>7170426</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5848,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>611</v>
-      </c>
-      <c r="D19" s="7">
-        <v>616170</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1002</v>
-      </c>
-      <c r="I19" s="7">
-        <v>852448</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1613</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1468618</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2763</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2768738</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4363</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2981692</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7126</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5750430</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384908</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5365</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3834140</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8739</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7219048</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
